--- a/medicine/Enfance/Fantômette_contre_la_Main_Jaune/Fantômette_contre_la_Main_Jaune.xlsx
+++ b/medicine/Enfance/Fantômette_contre_la_Main_Jaune/Fantômette_contre_la_Main_Jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_la_Main_Jaune</t>
+          <t>Fantômette_contre_la_Main_Jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette contre la Main Jaune est le 19e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_la_Main_Jaune</t>
+          <t>Fantômette_contre_la_Main_Jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette contre la Main Jaune a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_la_Main_Jaune</t>
+          <t>Fantômette_contre_la_Main_Jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
 Boulotte : amie de Françoise et de Ficelle
-M. Coquetier[3] : ingénieur
+M. Coquetier : ingénieur
 M. Ulysse Patatrasse : volcanologue
 M. Pacotille : commandant du navire L'Anthéor
 Tortoli : commandant du navire San Pancrazo
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_la_Main_Jaune</t>
+          <t>Fantômette_contre_la_Main_Jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1971 en langue française.
 Mise en place de l'intrigue (chapitres 1 et 2)
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_la_Main_Jaune</t>
+          <t>Fantômette_contre_la_Main_Jaune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapitre « Fantômette s'échappe » relate en fait l’évasion de Françoise, Ficelle et Boulotte.
 </t>
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_la_Main_Jaune</t>
+          <t>Fantômette_contre_la_Main_Jaune</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,9 +675,11 @@
           <t>Appréciation critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette[4], indique en pages 143-144  :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette, indique en pages 143-144  :
 « Sans doute l'une des histoires et des intrigues les plus fouillées de l'œuvre chaulétienne. Un classique. On y retrouve l'ingénieur Coquetier aperçu dans Fantômette et la Lampe merveilleuse, tandis que l'idée du camouflage du navire San Pancrazio sera reprise par l’auteur en 1996 dans un album des 4 As (Les 4 As et l'Atlantide). (…) L'idée de la main jaune est une déclinaison du signe distinctif de la société secrète "Carbonara" (un main noire), qui œuvrait à l'époque de Napoléon III, soit donc bien avant l'apparition de la mafia sicilienne. »
 </t>
         </is>
